--- a/链接分析结果_v4_最终版.xlsx
+++ b/链接分析结果_v4_最终版.xlsx
@@ -483,14 +483,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5米车长+2.9米轴距！岚图追光L实车到店，气场超越同级轿跑！</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -510,14 +510,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>岚图追光L实车到店，它的气场着实很强大</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -537,14 +537,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>不一样的中式豪华！体验岚图追光L</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -564,14 +564,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>实拍岚图追光L，智能四驱+华为ADS 4，这回轮到BBA交学费？</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -618,14 +618,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>岚图追光L又有新车色发布，配乾崑ADS 4和鸿蒙座舱5，四季度上市</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -645,14 +645,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>岚图追光L来了！5米1车长，用华为ADS 4和鸿蒙座舱，续航1400公里</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -672,14 +672,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>岚图追光L来了，3010毫米轴距，配华为乾崑ADS 4，续航410公里</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -699,14 +699,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>全域800V岚海智混+5C超充+63度大电池，岚图追光L值不值得下订</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -726,14 +726,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>岚图追光L开启预定，410km纯电续航</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -753,14 +753,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>拒绝BBA同质化！体验岚图追光L，这颜值这配置谁顶得住？</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -780,14 +780,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>每一台都是独一无二！静态体验岚图追光L，座舱豪华感给到位？</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -807,14 +807,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>岚图追光L行政级混动轿车新标杆，800V超混+华为全家桶</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -834,14 +834,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>华为乾崑辅助驾驶和鸿蒙座舱双加持！岚图追光L正式开启预订</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -861,14 +861,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>国产“大劳”？静态评测岚图追光L，一坐进去就不想走</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -888,14 +888,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>气场超56E？岚图追光L华为全家桶上车！</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -915,14 +915,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>沉浸式体验岚图追光L，四门电吸门+鸿蒙座舱+激光雷达</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -942,14 +942,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>尊界平替？剑指56E！岚图追光L有多少底气？</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -969,14 +969,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>岚图追光L | 外形气场全开，新一代超混技术加持，还有华为赋能</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1050,14 +1050,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>岚图追光L静态体验</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1077,14 +1077,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>什么车这么“尊”？岚图追光L，一起来看看！</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1104,14 +1104,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>华为“全家桶”加持，岚图追光L越级新中式豪华</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1536,14 +1536,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>63度电池插混！岚图追光L开起来升级大吗？卖多少钱合适？</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1592,12 +1592,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>63度电池、四驱、智能插混旗舰轿车，深度试驾岚图追光L</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1617,14 +1617,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>试驾岚图追光L，看东方豪华如何打破西方定义</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1725,14 +1725,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D48" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>全新岚图追光L：华为ADS4、鸿蒙座舱全都上了！</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1833,14 +1833,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D52" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>405</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1860,14 +1860,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D53" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>405</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1916,12 +1916,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>豪华新奢！静态品鉴岚图追光L，大声告诉我尊不尊！</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1943,12 +1943,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>豪华大旗舰！深度试驾岚图追光L，这气场无敌？</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1968,14 +1968,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>从内到外的尊！抢先试驾岚图追光L，BBA如何迎战？</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -1995,14 +1995,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>主打一个优雅！动态体验岚图追光L，我被拿捏了！</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -2024,12 +2024,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>豪华远不止表面！岚图追光L动态实测，真香？</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -2051,12 +2051,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>新豪华主义！岚图追光L静态品鉴，BBA慌不慌？</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -2076,14 +2076,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>405</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -2130,14 +2130,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>满足旗舰轿车的所有想象，岚图追光L到底有多尊？</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -2265,14 +2265,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D68" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>405</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -2292,14 +2292,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D69" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>中式美学配鸿蒙座舱，全新岚图追光L表现如何丨野生11</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -2400,14 +2400,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D73" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>光随轮动，心向自由，追光L的浪漫藏在细节里</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
@@ -2427,14 +2427,14 @@
           <t>未找到作者</t>
         </is>
       </c>
-      <c r="D74" s="2" t="inlineStr">
-        <is>
-          <t>未找到标题</t>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>焕新后，岚图追光L形象更“尊”了！</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>partial (Playwright)</t>
         </is>
       </c>
     </row>
